--- a/covid19/data_covid19_msis_by_location_2022-01-21.xlsx
+++ b/covid19/data_covid19_msis_by_location_2022-01-21.xlsx
@@ -462,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>135137</v>
+        <v>140666</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
         <v>697010</v>
       </c>
       <c r="O2">
-        <v>19388.1006011392</v>
+        <v>20181.3460352075</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -531,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>38424</v>
+        <v>39411</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         <v>482645</v>
       </c>
       <c r="O3">
-        <v>7961.13085186835</v>
+        <v>8165.62898196397</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>12885</v>
+        <v>13058</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -648,7 +648,7 @@
         <v>265544</v>
       </c>
       <c r="O4">
-        <v>4852.30319645708</v>
+        <v>4917.45247491941</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>11329</v>
+        <v>11461</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>240345</v>
       </c>
       <c r="O5">
-        <v>4713.64080800516</v>
+        <v>4768.56185899436</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>174655</v>
+        <v>178228</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>1252384</v>
       </c>
       <c r="O6">
-        <v>13945.8025653474</v>
+        <v>14231.098449038</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>24269</v>
+        <v>24828</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>370603</v>
       </c>
       <c r="O7">
-        <v>6548.51687654984</v>
+        <v>6699.3521369228</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>37396</v>
+        <v>37965</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>421882</v>
       </c>
       <c r="O8">
-        <v>8864.08995880365</v>
+        <v>8998.96179500429</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>27966</v>
+        <v>28516</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         <v>308843</v>
       </c>
       <c r="O9">
-        <v>9055.086241229361</v>
+        <v>9233.170251551761</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>46286</v>
+        <v>47150</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
         <v>638821</v>
       </c>
       <c r="O10">
-        <v>7245.53513425514</v>
+        <v>7380.78428855658</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>35390</v>
+        <v>36407</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>471124</v>
       </c>
       <c r="O11">
-        <v>7511.82278975387</v>
+        <v>7727.68952547525</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>16519</v>
+        <v>16659</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>242168</v>
       </c>
       <c r="O12">
-        <v>6821.29761157544</v>
+        <v>6879.10871791484</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>135125</v>
+        <v>140654</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>697010</v>
       </c>
       <c r="O13">
-        <v>19386.3789615644</v>
+        <v>20179.6243956328</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>707</v>
+        <v>733</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>14787</v>
       </c>
       <c r="O14">
-        <v>4781.22675322919</v>
+        <v>4957.05687428146</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>13102</v>
+        <v>13378</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>144147</v>
       </c>
       <c r="O15">
-        <v>9089.332417601479</v>
+        <v>9280.8036240782</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>3534</v>
+        <v>3607</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>37323</v>
       </c>
       <c r="O16">
-        <v>9468.69222731292</v>
+        <v>9664.282078075181</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>6794</v>
+        <v>6986</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>80450</v>
       </c>
       <c r="O17">
-        <v>8444.996892479799</v>
+        <v>8683.654443753891</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>3257</v>
       </c>
       <c r="O18">
-        <v>9026.71169788149</v>
+        <v>9333.742708013509</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>3174</v>
       </c>
       <c r="O19">
-        <v>6049.14933837429</v>
+        <v>6143.66729678639</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>2791</v>
       </c>
       <c r="O20">
-        <v>4263.70476531709</v>
+        <v>4442.85202436403</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>1332</v>
+        <v>1354</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>19120</v>
       </c>
       <c r="O21">
-        <v>6966.52719665272</v>
+        <v>7081.589958159</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>1424</v>
+        <v>1472</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>19848</v>
       </c>
       <c r="O22">
-        <v>7174.5264006449</v>
+        <v>7416.36436920597</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>1330</v>
+        <v>1380</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>19106</v>
       </c>
       <c r="O23">
-        <v>6961.16403224118</v>
+        <v>7222.8619281901</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>961</v>
+        <v>999</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>12064</v>
       </c>
       <c r="O24">
-        <v>7965.84880636605</v>
+        <v>8280.83554376658</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>2237</v>
+        <v>2298</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>27457</v>
       </c>
       <c r="O25">
-        <v>8147.28484539462</v>
+        <v>8369.450413373639</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>915</v>
+        <v>963</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>11315</v>
       </c>
       <c r="O26">
-        <v>8086.61069376933</v>
+        <v>8510.826336721169</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>472</v>
+        <v>499</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>13070</v>
       </c>
       <c r="O27">
-        <v>3611.32364192808</v>
+        <v>3817.90359602142</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>2580</v>
       </c>
       <c r="O28">
-        <v>2945.73643410853</v>
+        <v>3139.53488372093</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>2</v>
       </c>
       <c r="C29">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>3809</v>
       </c>
       <c r="O29">
-        <v>4279.33840903124</v>
+        <v>4384.35284851667</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>731</v>
+        <v>745</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>11178</v>
       </c>
       <c r="O33">
-        <v>6539.63141885847</v>
+        <v>6664.8774378243</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>3379</v>
+        <v>3442</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>42345</v>
       </c>
       <c r="O34">
-        <v>7979.69063643878</v>
+        <v>8128.46853229425</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>8705</v>
       </c>
       <c r="O36">
-        <v>5433.65881677197</v>
+        <v>5674.89948305572</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>2</v>
       </c>
       <c r="C37">
-        <v>1721</v>
+        <v>1764</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>24099</v>
       </c>
       <c r="O37">
-        <v>7141.37516079505</v>
+        <v>7319.80580107058</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>1202</v>
+        <v>1212</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>31870</v>
       </c>
       <c r="O38">
-        <v>3771.57201129589</v>
+        <v>3802.94948227173</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>3653</v>
+        <v>3678</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>66670</v>
       </c>
       <c r="O39">
-        <v>5479.22603869807</v>
+        <v>5516.72416379181</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>3083</v>
       </c>
       <c r="O40">
-        <v>2692.18293869608</v>
+        <v>2724.61887771651</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>8575</v>
       </c>
       <c r="O43">
-        <v>6029.15451895044</v>
+        <v>6099.12536443149</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>5140</v>
       </c>
       <c r="O44">
-        <v>3599.22178988327</v>
+        <v>3715.953307393</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>10830</v>
       </c>
       <c r="O45">
-        <v>5586.33425669437</v>
+        <v>5604.80147737766</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>2</v>
       </c>
       <c r="C46">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>4482</v>
       </c>
       <c r="O46">
-        <v>2186.52387327086</v>
+        <v>2208.83534136546</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>2</v>
       </c>
       <c r="C47">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>7596</v>
       </c>
       <c r="O47">
-        <v>2066.87730384413</v>
+        <v>2093.20695102686</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>9409</v>
       </c>
       <c r="O48">
-        <v>4782.65490487831</v>
+        <v>4793.28302688915</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>2</v>
       </c>
       <c r="C49">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>8506</v>
       </c>
       <c r="O49">
-        <v>5654.83188337644</v>
+        <v>5748.88314131202</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>2</v>
       </c>
       <c r="C50">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>6958</v>
       </c>
       <c r="O50">
-        <v>9787.295199770049</v>
+        <v>9801.66714573153</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>2</v>
       </c>
       <c r="C52">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>3522</v>
       </c>
       <c r="O52">
-        <v>6984.66780238501</v>
+        <v>7524.13401476434</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>5808</v>
       </c>
       <c r="O53">
-        <v>5061.98347107438</v>
+        <v>5130.85399449036</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>2</v>
       </c>
       <c r="C55">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>2985</v>
       </c>
       <c r="O55">
-        <v>2579.56448911223</v>
+        <v>2981.57453936348</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>6956</v>
       </c>
       <c r="O56">
-        <v>1624.49683726279</v>
+        <v>1653.24899367453</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>2128</v>
       </c>
       <c r="O58">
-        <v>2302.63157894737</v>
+        <v>2537.59398496241</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>3468</v>
       </c>
       <c r="O59">
-        <v>2364.47520184544</v>
+        <v>2393.31026528258</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>10781</v>
       </c>
       <c r="O60">
-        <v>5166.49661441425</v>
+        <v>5203.59892403302</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>2</v>
       </c>
       <c r="C62">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>13317</v>
       </c>
       <c r="O62">
-        <v>3949.83855222648</v>
+        <v>4085.00413005932</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>3388</v>
+        <v>3411</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>52560</v>
       </c>
       <c r="O63">
-        <v>6445.96651445967</v>
+        <v>6489.72602739726</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>21661</v>
       </c>
       <c r="O64">
-        <v>4653.52476801625</v>
+        <v>4662.75795207977</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>2</v>
       </c>
       <c r="C65">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>1397</v>
       </c>
       <c r="O65">
-        <v>2720.11453113815</v>
+        <v>5010.73729420186</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>2</v>
       </c>
       <c r="C70">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>1793</v>
       </c>
       <c r="O70">
-        <v>2565.53262688232</v>
+        <v>2621.30507529281</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>2</v>
       </c>
       <c r="C72">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>2278</v>
       </c>
       <c r="O72">
-        <v>2721.68568920105</v>
+        <v>2853.38015803336</v>
       </c>
       <c r="P72" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>2</v>
       </c>
       <c r="C73">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>13268</v>
       </c>
       <c r="O73">
-        <v>2916.7922821827</v>
+        <v>2924.32921314441</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>2</v>
       </c>
       <c r="C79">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>26083</v>
       </c>
       <c r="O79">
-        <v>4957.2518498639</v>
+        <v>4964.91967948472</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>2</v>
       </c>
       <c r="C80">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>1876</v>
       </c>
       <c r="O80">
-        <v>906.183368869936</v>
+        <v>959.488272921109</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
@@ -5982,7 +5982,7 @@
         <v>2</v>
       </c>
       <c r="C82">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>1206</v>
       </c>
       <c r="O82">
-        <v>3150.91210613599</v>
+        <v>3233.83084577114</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>2</v>
       </c>
       <c r="C83">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>6247</v>
       </c>
       <c r="O83">
-        <v>2273.09108372019</v>
+        <v>2289.09876740836</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>2</v>
       </c>
       <c r="C84">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>1920</v>
       </c>
       <c r="O84">
-        <v>2604.16666666667</v>
+        <v>3437.5</v>
       </c>
       <c r="P84" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>2</v>
       </c>
       <c r="C87">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>9640</v>
       </c>
       <c r="O87">
-        <v>3392.11618257261</v>
+        <v>3423.23651452282</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>2</v>
       </c>
       <c r="C91">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>1324</v>
       </c>
       <c r="O91">
-        <v>7477.3413897281</v>
+        <v>7779.45619335347</v>
       </c>
       <c r="P91" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>2</v>
       </c>
       <c r="C95">
-        <v>895</v>
+        <v>917</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>11521</v>
       </c>
       <c r="O95">
-        <v>7768.42287995834</v>
+        <v>7959.3785261696</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>2</v>
       </c>
       <c r="C96">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>9670</v>
       </c>
       <c r="O96">
-        <v>6856.25646328852</v>
+        <v>6980.35160289555</v>
       </c>
       <c r="P96" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>2</v>
       </c>
       <c r="C97">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>8065</v>
       </c>
       <c r="O97">
-        <v>7017.97892126472</v>
+        <v>7067.57594544327</v>
       </c>
       <c r="P97" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>2</v>
       </c>
       <c r="C98">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>2576</v>
       </c>
       <c r="O98">
-        <v>1708.07453416149</v>
+        <v>1746.89440993789</v>
       </c>
       <c r="P98" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>2</v>
       </c>
       <c r="C99">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>4416</v>
       </c>
       <c r="O99">
-        <v>6951.99275362319</v>
+        <v>6974.63768115942</v>
       </c>
       <c r="P99" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>2</v>
       </c>
       <c r="C100">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>10514</v>
       </c>
       <c r="O100">
-        <v>3110.13886246909</v>
+        <v>3129.16111850866</v>
       </c>
       <c r="P100" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>2</v>
       </c>
       <c r="C104">
-        <v>3131</v>
+        <v>3196</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>31387</v>
       </c>
       <c r="O104">
-        <v>9975.46755025966</v>
+        <v>10182.5596584573</v>
       </c>
       <c r="P104" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>2</v>
       </c>
       <c r="C105">
-        <v>6077</v>
+        <v>6086</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>49668</v>
       </c>
       <c r="O105">
-        <v>12235.242006926</v>
+        <v>12253.3623258436</v>
       </c>
       <c r="P105" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>2</v>
       </c>
       <c r="C106">
-        <v>7913</v>
+        <v>7999</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>57372</v>
       </c>
       <c r="O106">
-        <v>13792.4423063515</v>
+        <v>13942.3412117409</v>
       </c>
       <c r="P106" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>2</v>
       </c>
       <c r="C107">
-        <v>11188</v>
+        <v>11213</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>83193</v>
       </c>
       <c r="O107">
-        <v>13448.2468476915</v>
+        <v>13478.2974529107</v>
       </c>
       <c r="P107" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>2</v>
       </c>
       <c r="C108">
-        <v>16343</v>
+        <v>16482</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>101859</v>
       </c>
       <c r="O108">
-        <v>16044.7284972364</v>
+        <v>16181.1916472771</v>
       </c>
       <c r="P108" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>2</v>
       </c>
       <c r="C109">
-        <v>2156</v>
+        <v>2175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>27694</v>
       </c>
       <c r="O109">
-        <v>7785.07980067885</v>
+        <v>7853.68671914494</v>
       </c>
       <c r="P109" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>2</v>
       </c>
       <c r="C110">
-        <v>2698</v>
+        <v>2700</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>30835</v>
       </c>
       <c r="O110">
-        <v>8749.79730825361</v>
+        <v>8756.28344413816</v>
       </c>
       <c r="P110" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>2</v>
       </c>
       <c r="C113">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>3601</v>
       </c>
       <c r="O113">
-        <v>9886.142738128299</v>
+        <v>9913.91280199944</v>
       </c>
       <c r="P113" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>2</v>
       </c>
       <c r="C114">
-        <v>6484</v>
+        <v>6491</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>45201</v>
       </c>
       <c r="O114">
-        <v>14344.8153801907</v>
+        <v>14360.3017632353</v>
       </c>
       <c r="P114" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>2</v>
       </c>
       <c r="C115">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>3825</v>
       </c>
       <c r="O115">
-        <v>8810.457516339869</v>
+        <v>8836.60130718954</v>
       </c>
       <c r="P115" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>2</v>
       </c>
       <c r="C116">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8376,7 +8376,7 @@
         <v>8222</v>
       </c>
       <c r="O116">
-        <v>10447.5796643153</v>
+        <v>10471.9046460715</v>
       </c>
       <c r="P116" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>2</v>
       </c>
       <c r="C117">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>7568</v>
       </c>
       <c r="O117">
-        <v>10887.9492600423</v>
+        <v>10901.1627906977</v>
       </c>
       <c r="P117" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>2</v>
       </c>
       <c r="C118">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>5805</v>
       </c>
       <c r="O118">
-        <v>9026.701119724379</v>
+        <v>9147.286821705429</v>
       </c>
       <c r="P118" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>2</v>
       </c>
       <c r="C119">
-        <v>2556</v>
+        <v>2581</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>18290</v>
       </c>
       <c r="O119">
-        <v>13974.8496446145</v>
+        <v>14111.5363586659</v>
       </c>
       <c r="P119" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>2</v>
       </c>
       <c r="C120">
-        <v>10227</v>
+        <v>10316</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>60034</v>
       </c>
       <c r="O120">
-        <v>17035.3466369058</v>
+        <v>17183.595962288</v>
       </c>
       <c r="P120" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>2</v>
       </c>
       <c r="C121">
-        <v>2836</v>
+        <v>2880</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>20439</v>
       </c>
       <c r="O121">
-        <v>13875.4342188952</v>
+        <v>14090.7089387935</v>
       </c>
       <c r="P121" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>2</v>
       </c>
       <c r="C122">
-        <v>2130</v>
+        <v>2147</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>15953</v>
       </c>
       <c r="O122">
-        <v>13351.720679496</v>
+        <v>13458.2837083934</v>
       </c>
       <c r="P122" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>2</v>
       </c>
       <c r="C123">
-        <v>2400</v>
+        <v>2738</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>19805</v>
       </c>
       <c r="O123">
-        <v>12118.1519818228</v>
+        <v>13824.7917192628</v>
       </c>
       <c r="P123" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>2</v>
       </c>
       <c r="C124">
-        <v>19024</v>
+        <v>19346</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>128233</v>
       </c>
       <c r="O124">
-        <v>14835.4947634384</v>
+        <v>15086.6001731224</v>
       </c>
       <c r="P124" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>2</v>
       </c>
       <c r="C125">
-        <v>13214</v>
+        <v>13416</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>94915</v>
       </c>
       <c r="O125">
-        <v>13921.9301480272</v>
+        <v>14134.7521466575</v>
       </c>
       <c r="P125" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>2</v>
       </c>
       <c r="C126">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>17591</v>
       </c>
       <c r="O126">
-        <v>10039.2246034904</v>
+        <v>10044.909328634</v>
       </c>
       <c r="P126" t="inlineStr">
         <is>
@@ -9087,7 +9087,7 @@
         <v>2</v>
       </c>
       <c r="C127">
-        <v>3864</v>
+        <v>3907</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>18730</v>
       </c>
       <c r="O127">
-        <v>20630.0053390283</v>
+        <v>20859.5835557928</v>
       </c>
       <c r="P127" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>2</v>
       </c>
       <c r="C128">
-        <v>1729</v>
+        <v>1769</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>11065</v>
       </c>
       <c r="O128">
-        <v>15625.8472661545</v>
+        <v>15987.3474920922</v>
       </c>
       <c r="P128" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>2</v>
       </c>
       <c r="C129">
-        <v>9212</v>
+        <v>9303</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>42740</v>
       </c>
       <c r="O129">
-        <v>21553.579784745</v>
+        <v>21766.49508657</v>
       </c>
       <c r="P129" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>2</v>
       </c>
       <c r="C130">
-        <v>13698</v>
+        <v>15233</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>86953</v>
       </c>
       <c r="O130">
-        <v>15753.3380101894</v>
+        <v>17518.65950571</v>
       </c>
       <c r="P130" t="inlineStr">
         <is>
@@ -9363,7 +9363,7 @@
         <v>2</v>
       </c>
       <c r="C131">
-        <v>3695</v>
+        <v>3702</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>24454</v>
       </c>
       <c r="O131">
-        <v>15110.0024535863</v>
+        <v>15138.627627382</v>
       </c>
       <c r="P131" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>2</v>
       </c>
       <c r="C132">
-        <v>881</v>
+        <v>892</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>7043</v>
       </c>
       <c r="O132">
-        <v>12508.8740593497</v>
+        <v>12665.0575039046</v>
       </c>
       <c r="P132" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>2</v>
       </c>
       <c r="C133">
-        <v>8286</v>
+        <v>8336</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>40459</v>
       </c>
       <c r="O133">
-        <v>20479.9920907585</v>
+        <v>20603.5739884822</v>
       </c>
       <c r="P133" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>2</v>
       </c>
       <c r="C134">
-        <v>2781</v>
+        <v>2867</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>23422</v>
       </c>
       <c r="O134">
-        <v>11873.4523097942</v>
+        <v>12240.6284689608</v>
       </c>
       <c r="P134" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>2</v>
       </c>
       <c r="C135">
-        <v>3373</v>
+        <v>3390</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>26031</v>
       </c>
       <c r="O135">
-        <v>12957.6274442011</v>
+        <v>13022.9341938458</v>
       </c>
       <c r="P135" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>2</v>
       </c>
       <c r="C136">
-        <v>2129</v>
+        <v>2147</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>14637</v>
       </c>
       <c r="O136">
-        <v>14545.3303272529</v>
+        <v>14668.306346929</v>
       </c>
       <c r="P136" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>2</v>
       </c>
       <c r="C137">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>2838</v>
       </c>
       <c r="O137">
-        <v>9971.81113460183</v>
+        <v>10147.9915433404</v>
       </c>
       <c r="P137" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>2</v>
       </c>
       <c r="C138">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>6811</v>
       </c>
       <c r="O138">
-        <v>8104.53677874027</v>
+        <v>8339.450888268981</v>
       </c>
       <c r="P138" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>2</v>
       </c>
       <c r="C139">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>1049</v>
       </c>
       <c r="O139">
-        <v>2192.56434699714</v>
+        <v>2287.89323164919</v>
       </c>
       <c r="P139" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>2</v>
       </c>
       <c r="C140">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>3262</v>
       </c>
       <c r="O140">
-        <v>3801.34886572655</v>
+        <v>4138.56529736358</v>
       </c>
       <c r="P140" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>2</v>
       </c>
       <c r="C141">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>4636</v>
       </c>
       <c r="O141">
-        <v>13848.1449525453</v>
+        <v>13934.4262295082</v>
       </c>
       <c r="P141" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>2</v>
       </c>
       <c r="C142">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>2546</v>
       </c>
       <c r="O142">
-        <v>9583.66064414768</v>
+        <v>10644.1476826394</v>
       </c>
       <c r="P142" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>2</v>
       </c>
       <c r="C143">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>4648</v>
       </c>
       <c r="O143">
-        <v>6669.53528399312</v>
+        <v>6734.07917383821</v>
       </c>
       <c r="P143" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>2</v>
       </c>
       <c r="C144">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>4434</v>
       </c>
       <c r="O144">
-        <v>11637.347767253</v>
+        <v>11682.4537663509</v>
       </c>
       <c r="P144" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>2</v>
       </c>
       <c r="C145">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>3465</v>
       </c>
       <c r="O145">
-        <v>4300.1443001443</v>
+        <v>4704.1847041847</v>
       </c>
       <c r="P145" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>2</v>
       </c>
       <c r="C146">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>2219</v>
       </c>
       <c r="O146">
-        <v>7165.38981523209</v>
+        <v>8652.54619197837</v>
       </c>
       <c r="P146" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>2</v>
       </c>
       <c r="C147">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>14166</v>
       </c>
       <c r="O147">
-        <v>6381.47677537767</v>
+        <v>6402.65424255259</v>
       </c>
       <c r="P147" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>2</v>
       </c>
       <c r="C148">
-        <v>1970</v>
+        <v>1996</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>19709</v>
       </c>
       <c r="O148">
-        <v>9995.433558272871</v>
+        <v>10127.3529859455</v>
       </c>
       <c r="P148" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>2</v>
       </c>
       <c r="C149">
-        <v>4181</v>
+        <v>4264</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>27118</v>
       </c>
       <c r="O149">
-        <v>15417.8036728372</v>
+        <v>15723.8734419942</v>
       </c>
       <c r="P149" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>2</v>
       </c>
       <c r="C150">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>2713</v>
       </c>
       <c r="O150">
-        <v>4902.3221525986</v>
+        <v>4976.04128271286</v>
       </c>
       <c r="P150" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>2</v>
       </c>
       <c r="C152">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>2412</v>
       </c>
       <c r="O152">
-        <v>5016.58374792703</v>
+        <v>5223.88059701493</v>
       </c>
       <c r="P152" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>2</v>
       </c>
       <c r="C154">
-        <v>706</v>
+        <v>744</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>9062</v>
       </c>
       <c r="O154">
-        <v>7790.77466342971</v>
+        <v>8210.108143897591</v>
       </c>
       <c r="P154" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>2</v>
       </c>
       <c r="C155">
-        <v>1415</v>
+        <v>1432</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11067,7 +11067,7 @@
         <v>17851</v>
       </c>
       <c r="O155">
-        <v>7926.72679401714</v>
+        <v>8021.95955408661</v>
       </c>
       <c r="P155" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>2</v>
       </c>
       <c r="C156">
-        <v>3356</v>
+        <v>3468</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11136,7 +11136,7 @@
         <v>31509</v>
       </c>
       <c r="O156">
-        <v>10650.9251325018</v>
+        <v>11006.3791297724</v>
       </c>
       <c r="P156" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>2</v>
       </c>
       <c r="C157">
-        <v>1908</v>
+        <v>1955</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>28493</v>
       </c>
       <c r="O157">
-        <v>6696.38156740252</v>
+        <v>6861.33436282596</v>
       </c>
       <c r="P157" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>2</v>
       </c>
       <c r="C158">
-        <v>2361</v>
+        <v>2405</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>30395</v>
       </c>
       <c r="O158">
-        <v>7767.7249547623</v>
+        <v>7912.48560618523</v>
       </c>
       <c r="P158" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>2</v>
       </c>
       <c r="C159">
-        <v>2158</v>
+        <v>2219</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>34897</v>
       </c>
       <c r="O159">
-        <v>6183.91265724847</v>
+        <v>6358.71278333381</v>
       </c>
       <c r="P159" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>2</v>
       </c>
       <c r="C160">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>7625</v>
       </c>
       <c r="O160">
-        <v>5547.54098360656</v>
+        <v>5718.03278688525</v>
       </c>
       <c r="P160" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>2</v>
       </c>
       <c r="C161">
-        <v>1658</v>
+        <v>1704</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>21072</v>
       </c>
       <c r="O161">
-        <v>7868.26119969628</v>
+        <v>8086.56036446469</v>
       </c>
       <c r="P161" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>2</v>
       </c>
       <c r="C162">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>5038</v>
       </c>
       <c r="O162">
-        <v>3314.80746327908</v>
+        <v>3989.67844382692</v>
       </c>
       <c r="P162" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>2</v>
       </c>
       <c r="C163">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>7914</v>
       </c>
       <c r="O163">
-        <v>7922.6686884003</v>
+        <v>8049.02704068739</v>
       </c>
       <c r="P163" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>2</v>
       </c>
       <c r="C166">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         <v>7227</v>
       </c>
       <c r="O166">
-        <v>6448.04206448042</v>
+        <v>6503.3900650339</v>
       </c>
       <c r="P166" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>2</v>
       </c>
       <c r="C167">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>3587</v>
       </c>
       <c r="O167">
-        <v>6662.94954000558</v>
+        <v>6746.58488988012</v>
       </c>
       <c r="P167" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>2</v>
       </c>
       <c r="C168">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>21292</v>
       </c>
       <c r="O168">
-        <v>8721.58557204584</v>
+        <v>8730.97877136953</v>
       </c>
       <c r="P168" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>2</v>
       </c>
       <c r="C169">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>6580</v>
       </c>
       <c r="O169">
-        <v>6899.69604863222</v>
+        <v>6930.09118541033</v>
       </c>
       <c r="P169" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>2</v>
       </c>
       <c r="C172">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>1741</v>
       </c>
       <c r="O172">
-        <v>2584.7214244687</v>
+        <v>2642.15967834578</v>
       </c>
       <c r="P172" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>2</v>
       </c>
       <c r="C173">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>1250</v>
       </c>
       <c r="O173">
-        <v>7920</v>
+        <v>8000</v>
       </c>
       <c r="P173" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>2</v>
       </c>
       <c r="C175">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>5537</v>
       </c>
       <c r="O175">
-        <v>6194.69026548673</v>
+        <v>6212.75058696045</v>
       </c>
       <c r="P175" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>2</v>
       </c>
       <c r="C177">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>1518</v>
       </c>
       <c r="O177">
-        <v>1185.77075098814</v>
+        <v>1317.52305665349</v>
       </c>
       <c r="P177" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>2</v>
       </c>
       <c r="C178">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>1870</v>
       </c>
       <c r="O178">
-        <v>3529.41176470588</v>
+        <v>3582.88770053476</v>
       </c>
       <c r="P178" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>2</v>
       </c>
       <c r="C185">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>5592</v>
       </c>
       <c r="O185">
-        <v>3880.54363376252</v>
+        <v>3898.42632331903</v>
       </c>
       <c r="P185" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>2</v>
       </c>
       <c r="C186">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>3064</v>
       </c>
       <c r="O186">
-        <v>6005.22193211488</v>
+        <v>6070.49608355091</v>
       </c>
       <c r="P186" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>2</v>
       </c>
       <c r="C187">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         <v>4408</v>
       </c>
       <c r="O187">
-        <v>3901.99637023594</v>
+        <v>3992.74047186933</v>
       </c>
       <c r="P187" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>2</v>
       </c>
       <c r="C188">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>5093</v>
       </c>
       <c r="O188">
-        <v>5576.28117023365</v>
+        <v>5635.18554879246</v>
       </c>
       <c r="P188" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>2</v>
       </c>
       <c r="C189">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>6023</v>
       </c>
       <c r="O189">
-        <v>4748.46422048813</v>
+        <v>4848.08235098788</v>
       </c>
       <c r="P189" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>2</v>
       </c>
       <c r="C190">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13482,7 +13482,7 @@
         <v>14871</v>
       </c>
       <c r="O190">
-        <v>4908.88306099119</v>
+        <v>4962.67903974178</v>
       </c>
       <c r="P190" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>2</v>
       </c>
       <c r="C192">
-        <v>789</v>
+        <v>868</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>13611</v>
       </c>
       <c r="O192">
-        <v>5796.78201454706</v>
+        <v>6377.19491587686</v>
       </c>
       <c r="P192" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>2</v>
       </c>
       <c r="C193">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>5579</v>
       </c>
       <c r="O193">
-        <v>4176.37569456892</v>
+        <v>4319.77056820219</v>
       </c>
       <c r="P193" t="inlineStr">
         <is>
@@ -13710,7 +13710,7 @@
         <v>2</v>
       </c>
       <c r="C194">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
         <v>6581</v>
       </c>
       <c r="O194">
-        <v>6457.9851086461</v>
+        <v>6731.49977207111</v>
       </c>
       <c r="P194" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>2</v>
       </c>
       <c r="C195">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>2904</v>
       </c>
       <c r="O195">
-        <v>5406.33608815427</v>
+        <v>5509.64187327824</v>
       </c>
       <c r="P195" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>2</v>
       </c>
       <c r="C197">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13965,7 +13965,7 @@
         <v>6360</v>
       </c>
       <c r="O197">
-        <v>3427.67295597484</v>
+        <v>3459.11949685535</v>
       </c>
       <c r="P197" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>2</v>
       </c>
       <c r="C198">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>2120</v>
       </c>
       <c r="O198">
-        <v>6132.07547169811</v>
+        <v>7216.98113207547</v>
       </c>
       <c r="P198" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>2</v>
       </c>
       <c r="C200">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>1573</v>
       </c>
       <c r="O200">
-        <v>5403.68722186904</v>
+        <v>5467.26001271456</v>
       </c>
       <c r="P200" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>2</v>
       </c>
       <c r="C201">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>27510</v>
       </c>
       <c r="O201">
-        <v>7840.78516902944</v>
+        <v>7855.32533624137</v>
       </c>
       <c r="P201" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>2</v>
       </c>
       <c r="C202">
-        <v>2324</v>
+        <v>2343</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>25011</v>
       </c>
       <c r="O202">
-        <v>9291.91155891408</v>
+        <v>9367.878133621211</v>
       </c>
       <c r="P202" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>2</v>
       </c>
       <c r="C203">
-        <v>5704</v>
+        <v>5787</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>57026</v>
       </c>
       <c r="O203">
-        <v>10002.455020517</v>
+        <v>10148.0026654508</v>
       </c>
       <c r="P203" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>2</v>
       </c>
       <c r="C204">
-        <v>6230</v>
+        <v>6392</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>64345</v>
       </c>
       <c r="O204">
-        <v>9682.18198772243</v>
+        <v>9933.9498018494</v>
       </c>
       <c r="P204" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>2</v>
       </c>
       <c r="C205">
-        <v>3957</v>
+        <v>3992</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>47499</v>
       </c>
       <c r="O205">
-        <v>8330.701698983141</v>
+        <v>8404.38746078865</v>
       </c>
       <c r="P205" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>2</v>
       </c>
       <c r="C206">
-        <v>3507</v>
+        <v>3562</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>36526</v>
       </c>
       <c r="O206">
-        <v>9601.37983901878</v>
+        <v>9751.95750971911</v>
       </c>
       <c r="P206" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>2</v>
       </c>
       <c r="C207">
-        <v>5816</v>
+        <v>5864</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>55144</v>
       </c>
       <c r="O207">
-        <v>10546.93166981</v>
+        <v>10633.9764978964</v>
       </c>
       <c r="P207" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>2</v>
       </c>
       <c r="C208">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>12994</v>
       </c>
       <c r="O208">
-        <v>5410.18931814684</v>
+        <v>5425.58103740188</v>
       </c>
       <c r="P208" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>2</v>
       </c>
       <c r="C209">
-        <v>2550</v>
+        <v>2574</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>26957</v>
       </c>
       <c r="O209">
-        <v>9459.509589345989</v>
+        <v>9548.54026783396</v>
       </c>
       <c r="P209" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>2</v>
       </c>
       <c r="C210">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>2347</v>
       </c>
       <c r="O210">
-        <v>5666.80869194717</v>
+        <v>6220.70728589689</v>
       </c>
       <c r="P210" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>2</v>
       </c>
       <c r="C211">
-        <v>1097</v>
+        <v>1151</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>14014</v>
       </c>
       <c r="O211">
-        <v>7827.88639931497</v>
+        <v>8213.2153560725</v>
       </c>
       <c r="P211" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>2</v>
       </c>
       <c r="C212">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>10416</v>
       </c>
       <c r="O212">
-        <v>4886.71274961598</v>
+        <v>5107.52688172043</v>
       </c>
       <c r="P212" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>2</v>
       </c>
       <c r="C213">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>4071</v>
       </c>
       <c r="O213">
-        <v>4691.72193564235</v>
+        <v>4961.92581675264</v>
       </c>
       <c r="P213" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>2</v>
       </c>
       <c r="C214">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>6488</v>
       </c>
       <c r="O214">
-        <v>10234.2786683107</v>
+        <v>10496.3008631319</v>
       </c>
       <c r="P214" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>2</v>
       </c>
       <c r="C215">
-        <v>754</v>
+        <v>768</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>10461</v>
       </c>
       <c r="O215">
-        <v>7207.72392696683</v>
+        <v>7341.55434470892</v>
       </c>
       <c r="P215" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>2</v>
       </c>
       <c r="C216">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>5604</v>
       </c>
       <c r="O216">
-        <v>5870.80656673804</v>
+        <v>5888.65096359743</v>
       </c>
       <c r="P216" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>2</v>
       </c>
       <c r="C220">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>1430</v>
       </c>
       <c r="O220">
-        <v>7272.72727272727</v>
+        <v>7342.65734265734</v>
       </c>
       <c r="P220" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
         <v>2</v>
       </c>
       <c r="C221">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>1228</v>
       </c>
       <c r="O221">
-        <v>5700.32573289902</v>
+        <v>5863.19218241042</v>
       </c>
       <c r="P221" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>2</v>
       </c>
       <c r="C223">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>3756</v>
       </c>
       <c r="O223">
-        <v>3221.51224707135</v>
+        <v>3248.13631522897</v>
       </c>
       <c r="P223" t="inlineStr">
         <is>
@@ -15780,7 +15780,7 @@
         <v>2</v>
       </c>
       <c r="C224">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>6762</v>
       </c>
       <c r="O224">
-        <v>5797.10144927536</v>
+        <v>5826.67849748595</v>
       </c>
       <c r="P224" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>2</v>
       </c>
       <c r="C225">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>23891</v>
       </c>
       <c r="O225">
-        <v>8425.767025239629</v>
+        <v>8463.43811477125</v>
       </c>
       <c r="P225" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>2</v>
       </c>
       <c r="C226">
-        <v>3778</v>
+        <v>3803</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>45065</v>
       </c>
       <c r="O226">
-        <v>8383.446133362921</v>
+        <v>8438.92155774992</v>
       </c>
       <c r="P226" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>2</v>
       </c>
       <c r="C227">
-        <v>13321</v>
+        <v>13593</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>112588</v>
       </c>
       <c r="O227">
-        <v>11831.63392191</v>
+        <v>12073.2227235585</v>
       </c>
       <c r="P227" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>2</v>
       </c>
       <c r="C228">
-        <v>1619</v>
+        <v>1625</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>23055</v>
       </c>
       <c r="O228">
-        <v>7022.33788765994</v>
+        <v>7048.36261114726</v>
       </c>
       <c r="P228" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>2</v>
       </c>
       <c r="C229">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>9645</v>
       </c>
       <c r="O229">
-        <v>7713.84136858476</v>
+        <v>7796.78589942976</v>
       </c>
       <c r="P229" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>2</v>
       </c>
       <c r="C233">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>6067</v>
       </c>
       <c r="O233">
-        <v>6444.70084061315</v>
+        <v>6461.18345145871</v>
       </c>
       <c r="P233" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>2</v>
       </c>
       <c r="C234">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>6004</v>
       </c>
       <c r="O234">
-        <v>4347.1019320453</v>
+        <v>4380.41305796136</v>
       </c>
       <c r="P234" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>2</v>
       </c>
       <c r="C235">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>11180</v>
       </c>
       <c r="O235">
-        <v>9991.055456171731</v>
+        <v>10008.9445438283</v>
       </c>
       <c r="P235" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>2</v>
       </c>
       <c r="C236">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>5274</v>
       </c>
       <c r="O236">
-        <v>6086.46188850967</v>
+        <v>6124.38376943497</v>
       </c>
       <c r="P236" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>2</v>
       </c>
       <c r="C237">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16725,7 +16725,7 @@
         <v>1822</v>
       </c>
       <c r="O237">
-        <v>6092.20636663008</v>
+        <v>6147.09110867179</v>
       </c>
       <c r="P237" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>2</v>
       </c>
       <c r="C238">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>1335</v>
       </c>
       <c r="O238">
-        <v>8464.41947565543</v>
+        <v>9138.57677902622</v>
       </c>
       <c r="P238" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>2</v>
       </c>
       <c r="C239">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>3619</v>
       </c>
       <c r="O239">
-        <v>3177.67339043935</v>
+        <v>3205.30533296491</v>
       </c>
       <c r="P239" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>2</v>
       </c>
       <c r="C243">
-        <v>1713</v>
+        <v>1911</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>14935</v>
       </c>
       <c r="O243">
-        <v>11469.7020421828</v>
+        <v>12795.4469367258</v>
       </c>
       <c r="P243" t="inlineStr">
         <is>
@@ -17229,7 +17229,7 @@
         <v>2</v>
       </c>
       <c r="C245">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>10464</v>
       </c>
       <c r="O245">
-        <v>7865.06116207951</v>
+        <v>7874.61773700306</v>
       </c>
       <c r="P245" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>2</v>
       </c>
       <c r="C248">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17484,7 +17484,7 @@
         <v>1772</v>
       </c>
       <c r="O248">
-        <v>3216.70428893905</v>
+        <v>3837.47178329571</v>
       </c>
       <c r="P248" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>2</v>
       </c>
       <c r="C249">
-        <v>27974</v>
+        <v>28409</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>285601</v>
       </c>
       <c r="O249">
-        <v>9794.78363170997</v>
+        <v>9947.094022780029</v>
       </c>
       <c r="P249" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>2</v>
       </c>
       <c r="C250">
-        <v>777</v>
+        <v>806</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>17160</v>
       </c>
       <c r="O250">
-        <v>4527.97202797203</v>
+        <v>4696.9696969697</v>
       </c>
       <c r="P250" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>2</v>
       </c>
       <c r="C251">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>4053</v>
       </c>
       <c r="O251">
-        <v>3306.19294349864</v>
+        <v>3552.92376017765</v>
       </c>
       <c r="P251" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>2</v>
       </c>
       <c r="C252">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>5798</v>
       </c>
       <c r="O252">
-        <v>5864.09106588479</v>
+        <v>5933.08037254226</v>
       </c>
       <c r="P252" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>2</v>
       </c>
       <c r="C253">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         <v>11953</v>
       </c>
       <c r="O253">
-        <v>4626.45360997239</v>
+        <v>4693.38241445662</v>
       </c>
       <c r="P253" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>2</v>
       </c>
       <c r="C254">
-        <v>1111</v>
+        <v>1116</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>18861</v>
       </c>
       <c r="O254">
-        <v>5890.46179948041</v>
+        <v>5916.97152855098</v>
       </c>
       <c r="P254" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>2</v>
       </c>
       <c r="C255">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>3147</v>
       </c>
       <c r="O255">
-        <v>4766.44423260248</v>
+        <v>4798.2205274865</v>
       </c>
       <c r="P255" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>2</v>
       </c>
       <c r="C256">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>2924</v>
       </c>
       <c r="O256">
-        <v>3146.37482900137</v>
+        <v>3283.17373461012</v>
       </c>
       <c r="P256" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>2</v>
       </c>
       <c r="C257">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>13039</v>
       </c>
       <c r="O257">
-        <v>2730.27072628269</v>
+        <v>2837.6409233837</v>
       </c>
       <c r="P257" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>2</v>
       </c>
       <c r="C258">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>11002</v>
       </c>
       <c r="O258">
-        <v>3326.66787856753</v>
+        <v>3417.56044355572</v>
       </c>
       <c r="P258" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>2</v>
       </c>
       <c r="C261">
-        <v>926</v>
+        <v>937</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>15787</v>
       </c>
       <c r="O261">
-        <v>5865.58560841198</v>
+        <v>5935.26319123329</v>
       </c>
       <c r="P261" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>2</v>
       </c>
       <c r="C262">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>8461</v>
       </c>
       <c r="O262">
-        <v>4408.46235669543</v>
+        <v>4432.10022455975</v>
       </c>
       <c r="P262" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>2</v>
       </c>
       <c r="C263">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>2504</v>
       </c>
       <c r="O263">
-        <v>4992.01277955272</v>
+        <v>5031.94888178914</v>
       </c>
       <c r="P263" t="inlineStr">
         <is>
@@ -18540,7 +18540,7 @@
         <v>2</v>
       </c>
       <c r="C264">
-        <v>1301</v>
+        <v>1311</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>25049</v>
       </c>
       <c r="O264">
-        <v>5193.82011257935</v>
+        <v>5233.74186594275</v>
       </c>
       <c r="P264" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>2</v>
       </c>
       <c r="C265">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>5276</v>
       </c>
       <c r="O265">
-        <v>3942.38059135709</v>
+        <v>3961.33434420015</v>
       </c>
       <c r="P265" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>2</v>
       </c>
       <c r="C266">
-        <v>3129</v>
+        <v>3140</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>38664</v>
       </c>
       <c r="O266">
-        <v>8092.79950341403</v>
+        <v>8121.24974136147</v>
       </c>
       <c r="P266" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>2</v>
       </c>
       <c r="C267">
-        <v>2513</v>
+        <v>2637</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18795,7 +18795,7 @@
         <v>29594</v>
       </c>
       <c r="O267">
-        <v>8491.586132324121</v>
+        <v>8910.58998445631</v>
       </c>
       <c r="P267" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>2</v>
       </c>
       <c r="C268">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>3918</v>
       </c>
       <c r="O268">
-        <v>4721.79683511996</v>
+        <v>4747.32006125574</v>
       </c>
       <c r="P268" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>2</v>
       </c>
       <c r="C269">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>376</v>
       </c>
       <c r="O269">
-        <v>4255.31914893617</v>
+        <v>4521.27659574468</v>
       </c>
       <c r="P269" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>2</v>
       </c>
       <c r="C270">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>8080</v>
       </c>
       <c r="O270">
-        <v>4269.80198019802</v>
+        <v>4306.93069306931</v>
       </c>
       <c r="P270" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>2</v>
       </c>
       <c r="C271">
-        <v>1824</v>
+        <v>1895</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>29337</v>
       </c>
       <c r="O271">
-        <v>6217.40464260149</v>
+        <v>6459.41984524662</v>
       </c>
       <c r="P271" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>2</v>
       </c>
       <c r="C275">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>2272</v>
       </c>
       <c r="O275">
-        <v>2948.94366197183</v>
+        <v>2992.95774647887</v>
       </c>
       <c r="P275" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         <v>2</v>
       </c>
       <c r="C276">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>786</v>
       </c>
       <c r="O276">
-        <v>2162.84987277354</v>
+        <v>2290.07633587786</v>
       </c>
       <c r="P276" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>2</v>
       </c>
       <c r="C280">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>11938</v>
       </c>
       <c r="O280">
-        <v>4146.42318646339</v>
+        <v>4322.33204891942</v>
       </c>
       <c r="P280" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>2</v>
       </c>
       <c r="C281">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>1777</v>
       </c>
       <c r="O281">
-        <v>2982.55486775464</v>
+        <v>3151.37872819359</v>
       </c>
       <c r="P281" t="inlineStr">
         <is>
@@ -19851,7 +19851,7 @@
         <v>2</v>
       </c>
       <c r="C283">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>5170</v>
       </c>
       <c r="O283">
-        <v>3771.76015473888</v>
+        <v>3907.15667311412</v>
       </c>
       <c r="P283" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>2</v>
       </c>
       <c r="C284">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>5189</v>
       </c>
       <c r="O284">
-        <v>2929.27346309501</v>
+        <v>3141.26035845057</v>
       </c>
       <c r="P284" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>2</v>
       </c>
       <c r="C285">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>2991</v>
       </c>
       <c r="O285">
-        <v>2507.52256770311</v>
+        <v>2574.38983617519</v>
       </c>
       <c r="P285" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>2</v>
       </c>
       <c r="C286">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>2885</v>
       </c>
       <c r="O286">
-        <v>4298.09358752166</v>
+        <v>4332.75563258232</v>
       </c>
       <c r="P286" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>2</v>
       </c>
       <c r="C287">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>22020</v>
       </c>
       <c r="O287">
-        <v>3124.4323342416</v>
+        <v>3237.96548592189</v>
       </c>
       <c r="P287" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>2</v>
       </c>
       <c r="C288">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>3597</v>
       </c>
       <c r="O288">
-        <v>1918.26522101751</v>
+        <v>1973.86711148179</v>
       </c>
       <c r="P288" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>2</v>
       </c>
       <c r="C290">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>5885</v>
       </c>
       <c r="O290">
-        <v>3704.33305012744</v>
+        <v>3738.31775700935</v>
       </c>
       <c r="P290" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>2</v>
       </c>
       <c r="C291">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>7118</v>
       </c>
       <c r="O291">
-        <v>3427.92919359371</v>
+        <v>3877.49367799944</v>
       </c>
       <c r="P291" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>2</v>
       </c>
       <c r="C292">
-        <v>21196</v>
+        <v>21880</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>207595</v>
       </c>
       <c r="O292">
-        <v>10210.2651797972</v>
+        <v>10539.7528842217</v>
       </c>
       <c r="P292" t="inlineStr">
         <is>
@@ -20541,7 +20541,7 @@
         <v>2</v>
       </c>
       <c r="C293">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>24152</v>
       </c>
       <c r="O293">
-        <v>4802.91487247433</v>
+        <v>4815.33620404107</v>
       </c>
       <c r="P293" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>2</v>
       </c>
       <c r="C294">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>15096</v>
       </c>
       <c r="O294">
-        <v>4292.52782193959</v>
+        <v>4305.77636459989</v>
       </c>
       <c r="P294" t="inlineStr">
         <is>
@@ -20817,7 +20817,7 @@
         <v>2</v>
       </c>
       <c r="C297">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20865,7 +20865,7 @@
         <v>6981</v>
       </c>
       <c r="O297">
-        <v>5973.35625268586</v>
+        <v>6646.61223320441</v>
       </c>
       <c r="P297" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>2</v>
       </c>
       <c r="C298">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>2454</v>
       </c>
       <c r="O298">
-        <v>3219.23390383048</v>
+        <v>3300.73349633252</v>
       </c>
       <c r="P298" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>2</v>
       </c>
       <c r="C299">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>5550</v>
       </c>
       <c r="O299">
-        <v>4108.10810810811</v>
+        <v>4198.1981981982</v>
       </c>
       <c r="P299" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>2</v>
       </c>
       <c r="C300">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>1968</v>
       </c>
       <c r="O300">
-        <v>4014.22764227642</v>
+        <v>4065.0406504065</v>
       </c>
       <c r="P300" t="inlineStr">
         <is>
@@ -21093,7 +21093,7 @@
         <v>2</v>
       </c>
       <c r="C301">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>6243</v>
       </c>
       <c r="O301">
-        <v>6150.88899567516</v>
+        <v>6263.01457632549</v>
       </c>
       <c r="P301" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>2</v>
       </c>
       <c r="C302">
-        <v>908</v>
+        <v>932</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>16949</v>
       </c>
       <c r="O302">
-        <v>5357.24821523394</v>
+        <v>5498.84948964541</v>
       </c>
       <c r="P302" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>2</v>
       </c>
       <c r="C303">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>8367</v>
       </c>
       <c r="O303">
-        <v>5390.22349707183</v>
+        <v>5629.25779849408</v>
       </c>
       <c r="P303" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>2</v>
       </c>
       <c r="C304">
-        <v>1092</v>
+        <v>1127</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>14334</v>
       </c>
       <c r="O304">
-        <v>7618.25031393889</v>
+        <v>7862.42500348821</v>
       </c>
       <c r="P304" t="inlineStr">
         <is>
@@ -21369,7 +21369,7 @@
         <v>2</v>
       </c>
       <c r="C305">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>4069</v>
       </c>
       <c r="O305">
-        <v>4128.77856967314</v>
+        <v>4153.35463258786</v>
       </c>
       <c r="P305" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>2</v>
       </c>
       <c r="C308">
-        <v>1865</v>
+        <v>1962</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21624,7 +21624,7 @@
         <v>24283</v>
       </c>
       <c r="O308">
-        <v>7680.27014784005</v>
+        <v>8079.72655767409</v>
       </c>
       <c r="P308" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>2</v>
       </c>
       <c r="C310">
-        <v>1304</v>
+        <v>1320</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21762,7 +21762,7 @@
         <v>20170</v>
       </c>
       <c r="O310">
-        <v>6465.04709965295</v>
+        <v>6544.37283093704</v>
       </c>
       <c r="P310" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>2</v>
       </c>
       <c r="C311">
-        <v>999</v>
+        <v>1028</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>14986</v>
       </c>
       <c r="O311">
-        <v>6666.22180701989</v>
+        <v>6859.73575336981</v>
       </c>
       <c r="P311" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>2</v>
       </c>
       <c r="C312">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>2054</v>
       </c>
       <c r="O312">
-        <v>7448.88023369036</v>
+        <v>7497.56572541383</v>
       </c>
       <c r="P312" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>2</v>
       </c>
       <c r="C313">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>1328</v>
       </c>
       <c r="O313">
-        <v>6250</v>
+        <v>6325.30120481928</v>
       </c>
       <c r="P313" t="inlineStr">
         <is>
@@ -22335,7 +22335,7 @@
         <v>2</v>
       </c>
       <c r="C319">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>1100</v>
       </c>
       <c r="O319">
-        <v>818.181818181818</v>
+        <v>1000</v>
       </c>
       <c r="P319" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>2</v>
       </c>
       <c r="C321">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22521,7 +22521,7 @@
         <v>6764</v>
       </c>
       <c r="O321">
-        <v>4967.47486694264</v>
+        <v>5056.1797752809</v>
       </c>
       <c r="P321" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>2</v>
       </c>
       <c r="C323">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>5941</v>
       </c>
       <c r="O323">
-        <v>3113.95387981821</v>
+        <v>3130.78606295236</v>
       </c>
       <c r="P323" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>2</v>
       </c>
       <c r="C325">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         <v>10306</v>
       </c>
       <c r="O325">
-        <v>4444.01319619639</v>
+        <v>4473.12245294004</v>
       </c>
       <c r="P325" t="inlineStr">
         <is>
@@ -22887,7 +22887,7 @@
         <v>2</v>
       </c>
       <c r="C327">
-        <v>805</v>
+        <v>825</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>18300</v>
       </c>
       <c r="O327">
-        <v>4398.90710382514</v>
+        <v>4508.19672131148</v>
       </c>
       <c r="P327" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>2</v>
       </c>
       <c r="C328">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23004,7 +23004,7 @@
         <v>9581</v>
       </c>
       <c r="O328">
-        <v>6659.01262916188</v>
+        <v>6752.94854399332</v>
       </c>
       <c r="P328" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>2</v>
       </c>
       <c r="C329">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>1989</v>
       </c>
       <c r="O329">
-        <v>1709.40170940171</v>
+        <v>1759.67823026647</v>
       </c>
       <c r="P329" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>2</v>
       </c>
       <c r="C330">
-        <v>7225</v>
+        <v>7270</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>77095</v>
       </c>
       <c r="O330">
-        <v>9371.5545755237</v>
+        <v>9429.92411959271</v>
       </c>
       <c r="P330" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
         <v>2</v>
       </c>
       <c r="C331">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>24738</v>
       </c>
       <c r="O331">
-        <v>3977.68615086102</v>
+        <v>3993.85560675883</v>
       </c>
       <c r="P331" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="C332">
-        <v>1773</v>
+        <v>1797</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>20847</v>
       </c>
       <c r="O332">
-        <v>8504.82083753058</v>
+        <v>8619.94531587279</v>
       </c>
       <c r="P332" t="inlineStr">
         <is>
@@ -23439,7 +23439,7 @@
         <v>2</v>
       </c>
       <c r="C335">
-        <v>1851</v>
+        <v>1855</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23487,7 +23487,7 @@
         <v>11331</v>
       </c>
       <c r="O335">
-        <v>16335.7161768599</v>
+        <v>16371.0175624393</v>
       </c>
       <c r="P335" t="inlineStr">
         <is>
@@ -23577,7 +23577,7 @@
         <v>2</v>
       </c>
       <c r="C337">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>4209</v>
       </c>
       <c r="O337">
-        <v>2684.72321216441</v>
+        <v>2969.82656212877</v>
       </c>
       <c r="P337" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>2</v>
       </c>
       <c r="C341">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>3959</v>
       </c>
       <c r="O341">
-        <v>5910.58348067694</v>
+        <v>5986.36019196767</v>
       </c>
       <c r="P341" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>2</v>
       </c>
       <c r="C343">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>6609</v>
       </c>
       <c r="O343">
-        <v>5658.94991678015</v>
+        <v>5855.65138447571</v>
       </c>
       <c r="P343" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>2</v>
       </c>
       <c r="C346">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24246,7 +24246,7 @@
         <v>14725</v>
       </c>
       <c r="O346">
-        <v>4991.51103565365</v>
+        <v>5011.88455008489</v>
       </c>
       <c r="P346" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>2</v>
       </c>
       <c r="C347">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>5559</v>
       </c>
       <c r="O347">
-        <v>4982.91059543083</v>
+        <v>5072.8548300054</v>
       </c>
       <c r="P347" t="inlineStr">
         <is>
@@ -24819,7 +24819,7 @@
         <v>2</v>
       </c>
       <c r="C355">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>2920</v>
       </c>
       <c r="O355">
-        <v>3527.39726027397</v>
+        <v>3630.13698630137</v>
       </c>
       <c r="P355" t="inlineStr">
         <is>
@@ -24888,7 +24888,7 @@
         <v>2</v>
       </c>
       <c r="C356">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24936,7 +24936,7 @@
         <v>860</v>
       </c>
       <c r="O356">
-        <v>4883.72093023256</v>
+        <v>5000</v>
       </c>
       <c r="P356" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>2</v>
       </c>
       <c r="C359">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>3075</v>
       </c>
       <c r="O359">
-        <v>8845.52845528455</v>
+        <v>9008.130081300809</v>
       </c>
       <c r="P359" t="inlineStr">
         <is>
@@ -25233,7 +25233,7 @@
         <v>2</v>
       </c>
       <c r="C361">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>2641</v>
       </c>
       <c r="O361">
-        <v>4430.14009844756</v>
+        <v>4543.73343430519</v>
       </c>
       <c r="P361" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>2</v>
       </c>
       <c r="C362">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>1271</v>
       </c>
       <c r="O362">
-        <v>5664.83084185681</v>
+        <v>6372.93469708891</v>
       </c>
       <c r="P362" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>2</v>
       </c>
       <c r="C365">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>2829</v>
       </c>
       <c r="O365">
-        <v>2651.11346765642</v>
+        <v>2686.46164722517</v>
       </c>
       <c r="P365" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         <v>2</v>
       </c>
       <c r="C367">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>2200</v>
       </c>
       <c r="O367">
-        <v>4681.81818181818</v>
+        <v>4727.27272727273</v>
       </c>
       <c r="P367" t="inlineStr">
         <is>
@@ -25716,7 +25716,7 @@
         <v>2</v>
       </c>
       <c r="C368">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>10103</v>
       </c>
       <c r="O368">
-        <v>2118.18271800455</v>
+        <v>2157.77491834109</v>
       </c>
       <c r="P368" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>2</v>
       </c>
       <c r="C369">
-        <v>571655</v>
+        <v>586037</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>5391369</v>
       </c>
       <c r="O369">
-        <v>10603.1510735029</v>
+        <v>10869.9107777635</v>
       </c>
       <c r="P369" t="inlineStr">
         <is>
